--- a/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -298,10 +298,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -3221,13 +3221,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>81</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2421,7 +2421,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl)
 </t>
   </si>
   <si>
@@ -2936,7 +2936,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="202.92578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5908" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5908" uniqueCount="832">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -469,7 +469,7 @@
 </t>
   </si>
   <si>
-    <t>Identidad De Genero</t>
+    <t>Identidad De Género</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -499,10 +499,10 @@
 </t>
   </si>
   <si>
-    <t>Codigo de Paises</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye códigos de paises</t>
+    <t>Código de Países</t>
+  </si>
+  <si>
+    <t>Esta extensión incluye códigos de países</t>
   </si>
   <si>
     <t>Patient.extension:PaisOrigen</t>
@@ -609,7 +609,7 @@
     <t>Este es el listado de Identificaciones de un paciente. Se procura como R2 el RUN, pero en caso de no existir ese identificador se debe ocupar otro nacional u otro otorgado por país extranjero</t>
   </si>
   <si>
-    <t>En caso de que el paciente posea una CI con número RUN válido, este debe ser ingresado como identificador, independiente de que tenga otros identificadores, los cuales también pueden ser ingresados. La identificación implica el ingreso del tipo de documento, el país de origen de ese documento y ev valor del identificador</t>
+    <t>En caso de que el paciente posea una CI con número RUN válido, este debe ser ingresado como identificador, independiente de que tenga otros identificadores, los cuales también pueden ser ingresados. La identificación implica el ingreso del tipo de documento, el país de origen de ese documento y el valor del identificador</t>
   </si>
   <si>
     <t>Patients are almost always assigned specific numerical identifiers.</t>
@@ -771,7 +771,7 @@
     <t>Sistema mediante el cual se obtienen los códigos para un determinado tipo de documento</t>
   </si>
   <si>
-    <t>En la URL del sistema se describe el set de códigos. Por ejemplo si se desea usar Cédula de identidad el código es NNxxx en donde xxx corresponde al identificador del país según la norma iso3166-1-N. Dado lo anterior si fuera Chile, el tipo de documento sería NNCL. En el Caso de Usar un Pasaporte este no requiere identificar país de origen dado que este es un elemento adicional, por lo que independiente del país el código será PPT según el VS indicado</t>
+    <t>En la URL del sistema se describe el set de códigos. Por ejemplo, si se desea usar Cédula de identidad el código es NNxxx en donde xxx corresponde al identificador del país según la norma iso3166-1-N. Dado lo anterior si fuera Chile, el tipo de documento sería NNCL. En el Caso de Usar un Pasaporte este no requiere identificar país de origen dado que este es un elemento adicional, por lo que independiente del país el código será PPT según el VS indicado</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1188,7 +1188,7 @@
     <t>Extensión para el segundo apellido</t>
   </si>
   <si>
-    <t>Extensión para la declaracion de un segundo apellido</t>
+    <t>Extensión para la declaración de un segundo apellido</t>
   </si>
   <si>
     <t>Patient.name:NombreOficial.family.extension:segundoApellido</t>
@@ -1325,7 +1325,7 @@
     <t>nombre recurrente que usa el paciente</t>
   </si>
   <si>
-    <t>Nombre con el cual se identifica al paciente sin ser este oficial. Se especifica slo en el uso del nombre</t>
+    <t>Nombre con el cual se identifica al paciente sin ser este oficial. Se especifica solo en el uso del nombre</t>
   </si>
   <si>
     <t>Patient.name:NombreSocial.id</t>
@@ -1389,7 +1389,7 @@
     <t>Detalles de contacto del Paciente</t>
   </si>
   <si>
-    <t>Detalles del contacto de un paciente comunmente el o los mas usados (Ej: Teléfono fijo, móvil, email, etc.)</t>
+    <t>Detalles del contacto de un paciente comúnmente el o los más usados (Ej: Teléfono fijo, móvil, email, etc.)</t>
   </si>
   <si>
     <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address might not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).</t>
@@ -1447,7 +1447,7 @@
     <t>Valor de contacto</t>
   </si>
   <si>
-    <t>Valor del contacto como por ejemplo el numero de telefono fijo o de móvil o el email del Paciente</t>
+    <t>Valor del contacto como por ejemplo el número de teléfono fijo o de móvil o el email del Paciente</t>
   </si>
   <si>
     <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
@@ -1607,7 +1607,7 @@
 </t>
   </si>
   <si>
-    <t>Tipo de dato para agragar la dirección de un paciente</t>
+    <t>Tipo de dato para agregar la dirección</t>
   </si>
   <si>
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
@@ -1672,7 +1672,7 @@
     <t>Definición del tipo de domicilio home | work | temp | old (requerido)</t>
   </si>
   <si>
-    <t>Se especifica el tipo de dirección notificada. Esto debe ser segun los códigos definidos por HL7 FHIR</t>
+    <t>Se especifica el tipo de dirección notificada. Esto debe ser segn los códigos definidos por HL7 FHIR</t>
   </si>
   <si>
     <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
@@ -1965,9 +1965,6 @@
   </si>
   <si>
     <t>Patient.address.country.extension</t>
-  </si>
-  <si>
-    <t>Código de Países</t>
   </si>
   <si>
     <t>Patient.address.country.extension:paises</t>
@@ -2145,7 +2142,7 @@
     <t>Patient.contact.relationship</t>
   </si>
   <si>
-    <t>Relación legal o de paretezco entre el contacto y el paciente</t>
+    <t>Relación legal o de parentesco entre el contacto y el paciente</t>
   </si>
   <si>
     <t>The nature of the relationship between the patient and the contact person.</t>
@@ -2235,7 +2232,7 @@
     <t>Primer nombre y nombres del Contacto o Representante Legal</t>
   </si>
   <si>
-    <t>Todos los nombres  no necesariamente solo el Primero</t>
+    <t>Todos los nombres no necesariamente solo el Primero</t>
   </si>
   <si>
     <t>Patient.contact.name.prefix</t>
@@ -15034,10 +15031,10 @@
         <v>135</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>631</v>
+        <v>154</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>631</v>
+        <v>154</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15118,13 +15115,13 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>630</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>81</v>
@@ -15235,10 +15232,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15350,10 +15347,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15379,14 +15376,14 @@
         <v>300</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>81</v>
@@ -15399,43 +15396,43 @@
         <v>81</v>
       </c>
       <c r="T107" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF107" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -15459,7 +15456,7 @@
         <v>81</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>81</v>
@@ -15467,10 +15464,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15496,14 +15493,14 @@
         <v>216</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>81</v>
@@ -15532,7 +15529,7 @@
       </c>
       <c r="Y108" s="2"/>
       <c r="Z108" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>81</v>
@@ -15550,7 +15547,7 @@
         <v>81</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -15565,16 +15562,16 @@
         <v>101</v>
       </c>
       <c r="AK108" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AL108" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="AL108" t="s" s="2">
+      <c r="AM108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN108" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>81</v>
@@ -15582,10 +15579,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15608,19 +15605,19 @@
         <v>81</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>81</v>
@@ -15669,7 +15666,7 @@
         <v>81</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15684,7 +15681,7 @@
         <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>199</v>
@@ -15693,7 +15690,7 @@
         <v>81</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>81</v>
@@ -15701,10 +15698,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15727,19 +15724,19 @@
         <v>81</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>81</v>
@@ -15788,7 +15785,7 @@
         <v>81</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15803,7 +15800,7 @@
         <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>199</v>
@@ -15812,7 +15809,7 @@
         <v>81</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>81</v>
@@ -15820,10 +15817,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15846,19 +15843,19 @@
         <v>81</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M111" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="N111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>81</v>
@@ -15907,7 +15904,7 @@
         <v>81</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -15919,10 +15916,10 @@
         <v>81</v>
       </c>
       <c r="AJ111" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AK111" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>199</v>
@@ -15939,10 +15936,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16054,10 +16051,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16167,13 +16164,13 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="C114" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="C114" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>81</v>
@@ -16195,13 +16192,13 @@
         <v>81</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16284,14 +16281,14 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16313,10 +16310,10 @@
         <v>135</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>181</v>
@@ -16371,7 +16368,7 @@
         <v>81</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -16403,10 +16400,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16432,14 +16429,14 @@
         <v>216</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>81</v>
@@ -16467,11 +16464,11 @@
         <v>210</v>
       </c>
       <c r="Y116" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="Z116" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="Z116" t="s" s="2">
-        <v>690</v>
-      </c>
       <c r="AA116" t="s" s="2">
         <v>81</v>
       </c>
@@ -16488,7 +16485,7 @@
         <v>81</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -16503,7 +16500,7 @@
         <v>101</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>199</v>
@@ -16512,7 +16509,7 @@
         <v>81</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>81</v>
@@ -16520,10 +16517,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16635,10 +16632,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16752,10 +16749,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16871,10 +16868,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16990,10 +16987,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17019,14 +17016,14 @@
         <v>323</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>81</v>
@@ -17075,7 +17072,7 @@
         <v>81</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -17099,7 +17096,7 @@
         <v>81</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>81</v>
@@ -17107,10 +17104,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17222,10 +17219,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17339,10 +17336,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17371,10 +17368,10 @@
         <v>342</v>
       </c>
       <c r="M124" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="N124" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>345</v>
@@ -17458,10 +17455,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17577,10 +17574,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17694,10 +17691,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17809,10 +17806,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17838,7 +17835,7 @@
         <v>135</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>377</v>
@@ -17922,10 +17919,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C129" t="s" s="2">
         <v>379</v>
@@ -18039,10 +18036,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18154,10 +18151,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18183,10 +18180,10 @@
         <v>195</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="N131" t="s" s="2">
         <v>393</v>
@@ -18271,10 +18268,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18386,10 +18383,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18501,10 +18498,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18618,10 +18615,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18647,13 +18644,13 @@
         <v>441</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>721</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>722</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>723</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>445</v>
@@ -18705,7 +18702,7 @@
         <v>81</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -18729,7 +18726,7 @@
         <v>81</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>81</v>
@@ -18737,10 +18734,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18763,17 +18760,17 @@
         <v>81</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="L136" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="M136" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>728</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>81</v>
@@ -18822,7 +18819,7 @@
         <v>81</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18837,7 +18834,7 @@
         <v>101</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>199</v>
@@ -18846,7 +18843,7 @@
         <v>81</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>81</v>
@@ -18854,10 +18851,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18883,14 +18880,14 @@
         <v>109</v>
       </c>
       <c r="L137" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>81</v>
@@ -18939,7 +18936,7 @@
         <v>81</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -18963,7 +18960,7 @@
         <v>81</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>81</v>
@@ -18971,10 +18968,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19000,14 +18997,14 @@
         <v>307</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>81</v>
@@ -19056,7 +19053,7 @@
         <v>81</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -19065,13 +19062,13 @@
         <v>89</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>199</v>
@@ -19080,7 +19077,7 @@
         <v>81</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>81</v>
@@ -19088,10 +19085,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19117,10 +19114,10 @@
         <v>300</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>745</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -19171,7 +19168,7 @@
         <v>81</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -19186,7 +19183,7 @@
         <v>101</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>199</v>
@@ -19203,10 +19200,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19229,19 +19226,19 @@
         <v>81</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="M140" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="N140" t="s" s="2">
+      <c r="O140" t="s" s="2">
         <v>750</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>81</v>
@@ -19290,7 +19287,7 @@
         <v>81</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -19305,10 +19302,10 @@
         <v>101</v>
       </c>
       <c r="AK140" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="AL140" t="s" s="2">
         <v>752</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>753</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>81</v>
@@ -19322,10 +19319,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19437,10 +19434,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19554,14 +19551,14 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
@@ -19583,10 +19580,10 @@
         <v>135</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>181</v>
@@ -19641,7 +19638,7 @@
         <v>81</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
@@ -19673,10 +19670,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19702,16 +19699,16 @@
         <v>216</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>759</v>
       </c>
-      <c r="N144" t="s" s="2">
+      <c r="O144" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>761</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>81</v>
@@ -19739,11 +19736,11 @@
         <v>210</v>
       </c>
       <c r="Y144" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="Z144" t="s" s="2">
         <v>762</v>
       </c>
-      <c r="Z144" t="s" s="2">
-        <v>763</v>
-      </c>
       <c r="AA144" t="s" s="2">
         <v>81</v>
       </c>
@@ -19760,7 +19757,7 @@
         <v>81</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>89</v>
@@ -19775,16 +19772,16 @@
         <v>101</v>
       </c>
       <c r="AK144" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="AL144" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="AL144" t="s" s="2">
+      <c r="AM144" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN144" t="s" s="2">
         <v>765</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN144" t="s" s="2">
-        <v>766</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>81</v>
@@ -19792,10 +19789,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19821,16 +19818,16 @@
         <v>266</v>
       </c>
       <c r="L145" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>768</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="N145" t="s" s="2">
+      <c r="O145" t="s" s="2">
         <v>770</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>771</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>81</v>
@@ -19879,7 +19876,7 @@
         <v>81</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>79</v>
@@ -19894,16 +19891,16 @@
         <v>101</v>
       </c>
       <c r="AK145" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="AL145" t="s" s="2">
         <v>772</v>
       </c>
-      <c r="AL145" t="s" s="2">
+      <c r="AM145" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN145" t="s" s="2">
         <v>773</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>774</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>81</v>
@@ -19911,14 +19908,14 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
@@ -19937,16 +19934,16 @@
         <v>81</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="M146" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="N146" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -19996,7 +19993,7 @@
         <v>81</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -20011,7 +20008,7 @@
         <v>101</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>199</v>
@@ -20020,7 +20017,7 @@
         <v>81</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>81</v>
@@ -20028,10 +20025,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20143,10 +20140,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20260,10 +20257,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20289,13 +20286,13 @@
         <v>195</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>785</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>786</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -20345,16 +20342,16 @@
         <v>81</v>
       </c>
       <c r="AF149" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI149" t="s" s="2">
         <v>787</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>101</v>
@@ -20377,10 +20374,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20406,13 +20403,13 @@
         <v>103</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>790</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>791</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>792</v>
       </c>
       <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
@@ -20438,31 +20435,31 @@
         <v>81</v>
       </c>
       <c r="X150" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="Y150" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="Y150" t="s" s="2">
+      <c r="Z150" t="s" s="2">
         <v>794</v>
       </c>
-      <c r="Z150" t="s" s="2">
+      <c r="AA150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF150" t="s" s="2">
         <v>795</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>796</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
@@ -20494,10 +20491,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20523,13 +20520,13 @@
         <v>185</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>798</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>799</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -20579,7 +20576,7 @@
         <v>81</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
@@ -20594,7 +20591,7 @@
         <v>101</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>81</v>
@@ -20611,10 +20608,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20640,13 +20637,13 @@
         <v>195</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>804</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>805</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20696,7 +20693,7 @@
         <v>81</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -20728,10 +20725,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20757,16 +20754,16 @@
         <v>307</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>808</v>
       </c>
-      <c r="M153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>809</v>
       </c>
-      <c r="N153" t="s" s="2">
+      <c r="O153" t="s" s="2">
         <v>810</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>811</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>81</v>
@@ -20815,7 +20812,7 @@
         <v>81</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -20830,10 +20827,10 @@
         <v>101</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>81</v>
@@ -20847,10 +20844,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20873,19 +20870,19 @@
         <v>90</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>814</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>815</v>
       </c>
-      <c r="N154" t="s" s="2">
+      <c r="O154" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>81</v>
@@ -20934,7 +20931,7 @@
         <v>81</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
@@ -20949,7 +20946,7 @@
         <v>101</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>199</v>
@@ -20966,10 +20963,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21081,10 +21078,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21198,14 +21195,14 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -21227,10 +21224,10 @@
         <v>135</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="N157" t="s" s="2">
         <v>181</v>
@@ -21285,7 +21282,7 @@
         <v>81</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>79</v>
@@ -21317,10 +21314,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21343,16 +21340,16 @@
         <v>90</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>824</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -21402,7 +21399,7 @@
         <v>81</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>89</v>
@@ -21426,7 +21423,7 @@
         <v>81</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>81</v>
@@ -21434,10 +21431,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21463,10 +21460,10 @@
         <v>109</v>
       </c>
       <c r="L159" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>829</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>830</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -21496,11 +21493,11 @@
         <v>210</v>
       </c>
       <c r="Y159" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="Z159" t="s" s="2">
         <v>830</v>
       </c>
-      <c r="Z159" t="s" s="2">
-        <v>831</v>
-      </c>
       <c r="AA159" t="s" s="2">
         <v>81</v>
       </c>
@@ -21517,7 +21514,7 @@
         <v>81</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>89</v>
@@ -21532,7 +21529,7 @@
         <v>101</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>199</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PatientLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1644,7 +1644,7 @@
 </t>
   </si>
   <si>
-    <t>Dirección absoluta, es decir, latitud y longitud.</t>
+    <t>The absolute geographic location</t>
   </si>
   <si>
     <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
@@ -2923,17 +2923,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.5390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="29.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.5859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.2421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.33203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="202.92578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="181.5" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2942,27 +2942,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.6953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.1875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="74.1484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.3828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.48828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="66.4296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="151.51171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.671875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="137.7109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="35.7421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="92.15234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
